--- a/8-3_要件定義/機能_画面 マトリクス表.xlsx
+++ b/8-3_要件定義/機能_画面 マトリクス表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zukis\OneDrive\デスクトップ\educure\8_SelfMade\8-3_要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zukis\OneDrive\デスクトップ\educure\Ryuto-Suzuki-educure-app\8-3_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2C692A-E8CC-43D1-8E22-5915F6F95D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37E8F62-5D86-47FB-A994-D567212EC860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="4050" windowWidth="18675" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>◯（登録・編集・管理）</t>
   </si>
   <si>
-    <t>△（編集可否は運用次第）</t>
-  </si>
-  <si>
     <t>入出庫予定CSV一括登録・出力</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>配送伝票番号登録／確認画面</t>
   </si>
   <si>
-    <t>◯（※編集は権限により制限可）</t>
-  </si>
-  <si>
     <t>入出庫予定CSV一括登録画面</t>
   </si>
   <si>
@@ -158,6 +152,17 @@
   </si>
   <si>
     <t>エラーメッセージ／バリデーション表示画面</t>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×（閲覧のみ）</t>
+    <rPh sb="2" eb="4">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -514,7 +519,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -632,23 +637,23 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -659,7 +664,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -678,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685AFB2B-318E-4320-97A8-5324BB309A3F}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -691,7 +696,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -702,7 +707,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -713,7 +718,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -724,7 +729,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -735,7 +740,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -746,7 +751,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -757,7 +762,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -768,7 +773,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -779,7 +784,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -790,18 +795,18 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -812,18 +817,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>9</v>
@@ -834,7 +839,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>9</v>
@@ -845,7 +850,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
@@ -856,7 +861,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>

--- a/8-3_要件定義/機能_画面 マトリクス表.xlsx
+++ b/8-3_要件定義/機能_画面 マトリクス表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zukis\OneDrive\デスクトップ\educure\Ryuto-Suzuki-educure-app\8-3_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37E8F62-5D86-47FB-A994-D567212EC860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA932B7-EE6A-4E4E-8B3D-1FF048D374BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="4050" windowWidth="18675" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能マトリクス表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
   <si>
     <t>機能</t>
   </si>
@@ -37,72 +37,12 @@
     <t>作業者</t>
   </si>
   <si>
-    <t>ユーザー管理</t>
-  </si>
-  <si>
-    <t>◯（新規登録・編集・削除・権限付与）</t>
-  </si>
-  <si>
     <t>×</t>
   </si>
   <si>
-    <t>商品管理</t>
-  </si>
-  <si>
-    <t>◯（登録・編集・削除・検索）</t>
-  </si>
-  <si>
-    <t>入庫予定登録</t>
-  </si>
-  <si>
     <t>◯</t>
   </si>
   <si>
-    <t>入庫実績入力</t>
-  </si>
-  <si>
-    <t>△（可能だが主に作業者担当）</t>
-  </si>
-  <si>
-    <t>出庫予定登録</t>
-  </si>
-  <si>
-    <t>出庫実績入力</t>
-  </si>
-  <si>
-    <t>在庫管理表示</t>
-  </si>
-  <si>
-    <t>◯（全在庫閲覧）</t>
-  </si>
-  <si>
-    <t>◯（担当範囲の閲覧）</t>
-  </si>
-  <si>
-    <t>入出庫履歴閲覧</t>
-  </si>
-  <si>
-    <t>◯（全履歴閲覧）</t>
-  </si>
-  <si>
-    <t>◯（全履歴閲覧可能）</t>
-  </si>
-  <si>
-    <t>配送業者API連携（伝票番号管理）</t>
-  </si>
-  <si>
-    <t>◯（登録・編集・管理）</t>
-  </si>
-  <si>
-    <t>入出庫予定CSV一括登録・出力</t>
-  </si>
-  <si>
-    <t>画像添付（入出庫実績）</t>
-  </si>
-  <si>
-    <t>ログイン・認証・権限管理</t>
-  </si>
-  <si>
     <t>画面名</t>
   </si>
   <si>
@@ -115,9 +55,6 @@
     <t>ユーザー管理画面</t>
   </si>
   <si>
-    <t>商品管理画面</t>
-  </si>
-  <si>
     <t>入庫予定登録画面</t>
   </si>
   <si>
@@ -133,24 +70,15 @@
     <t>在庫一覧画面</t>
   </si>
   <si>
-    <t>◯（担当範囲）</t>
-  </si>
-  <si>
     <t>入出庫履歴画面</t>
   </si>
   <si>
-    <t>配送伝票番号登録／確認画面</t>
-  </si>
-  <si>
     <t>入出庫予定CSV一括登録画面</t>
   </si>
   <si>
     <t>入出庫予定CSV出力画面</t>
   </si>
   <si>
-    <t>添付画像閲覧画面（履歴内）</t>
-  </si>
-  <si>
     <t>エラーメッセージ／バリデーション表示画面</t>
   </si>
   <si>
@@ -158,7 +86,358 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×（閲覧のみ）</t>
+    <t>ユーザー管理_新規登録</t>
+    <rPh sb="7" eb="11">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー管理_編集</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー管理_削除</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入庫予定_編集</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入庫予定_削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー管理_閲覧</t>
+    <rPh sb="7" eb="9">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入庫予定_閲覧</t>
+    <rPh sb="5" eb="7">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入庫実績_閲覧</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入庫予定_新規登録</t>
+    <rPh sb="5" eb="9">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入庫実績_編集</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出庫予定_閲覧</t>
+    <rPh sb="0" eb="2">
+      <t>シュッコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出庫予定_新規登録</t>
+    <rPh sb="0" eb="2">
+      <t>シュッコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出庫予定_編集</t>
+    <rPh sb="0" eb="2">
+      <t>シュッコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出庫予定_削除</t>
+    <rPh sb="0" eb="2">
+      <t>シュッコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出庫実績_閲覧</t>
+    <rPh sb="0" eb="2">
+      <t>シュッコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出庫実績_編集</t>
+    <rPh sb="0" eb="2">
+      <t>シュッコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入出庫予定CSV一括_出力</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入出庫予定CSV一括_登録</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発送先管理_閲覧</t>
+    <rPh sb="0" eb="2">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発送先管理_編集</t>
+    <rPh sb="0" eb="2">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発送先管理_新規登録</t>
+    <rPh sb="0" eb="2">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発送先管理_削除</t>
+    <rPh sb="0" eb="2">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製品管理_閲覧</t>
+    <rPh sb="5" eb="7">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製品管理_新規登録</t>
+    <rPh sb="5" eb="9">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製品管理_編集</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製品管理_削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>在庫状況一覧</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出庫実績_画像添付</t>
+    <rPh sb="0" eb="2">
+      <t>シュッコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入庫実績_画像添付</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウト時画面</t>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製品管理画面</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発送先管理画面</t>
+    <rPh sb="0" eb="2">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇(閲覧のみ)</t>
     <rPh sb="2" eb="4">
       <t>エツラン</t>
     </rPh>
@@ -169,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,13 +470,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -230,11 +527,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="38" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -516,161 +819,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="1" customWidth="1"/>
-    <col min="4" max="13" width="9" style="1"/>
+    <col min="1" max="1" width="33" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="4" customWidth="1"/>
+    <col min="4" max="13" width="9" style="4"/>
+    <col min="14" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
+      <c r="B29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -683,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685AFB2B-318E-4320-97A8-5324BB309A3F}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -695,179 +1208,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>43</v>
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
